--- a/biology/Zoologie/Dactylopsila_tatei/Dactylopsila_tatei.xlsx
+++ b/biology/Zoologie/Dactylopsila_tatei/Dactylopsila_tatei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Phalanger au pelage rayé de l'île Fergusson (Dactylopsila tatei, en anglais : the Tate's Triok) est une espèce de marsupiaux de la famille des Petauridae.
 Il est très mal connu.
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est endémique de Papouasie-Nouvelle-Guinée, il se rencontre uniquement sur les montagnes de l'ouest de l'île Fergusson dans l'archipel d'Entrecasteaux.
 Il vit dans les forêts sèches tropicales et subtropicales entre 600 et 1 000 m d'altitude.
@@ -544,7 +558,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Laurie, 1952 : Mammals collected by Mr. Shaw Mayer in New Guinea 1932-1949. Bulletin of the British Museum (Natural History), Zoology Series, vol. 1, p. 269-318.</t>
         </is>
